--- a/xlsx/麻省理工学院_intext.xlsx
+++ b/xlsx/麻省理工学院_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1276">
   <si>
     <t>麻省理工学院</t>
   </si>
@@ -29,7 +29,7 @@
     <t>MIT (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_麻省理工学院</t>
+    <t>政策_政策_美国_麻省理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AB%A0</t>
@@ -53,19 +53,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E7%AB%8B%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>私立學校</t>
+    <t>私立学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A9%B6%E5%9E%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>研究型大學</t>
+    <t>研究型大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%88%E5%9C%B0%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>贈地大學</t>
+    <t>赠地大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%91</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E7%9B%A3</t>
   </si>
   <si>
-    <t>校監</t>
+    <t>校监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E9%95%B7</t>
   </si>
   <si>
-    <t>校長</t>
+    <t>校长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/L.%E6%8B%89%E6%96%90%E5%B0%94%C2%B7%E8%8E%B1%E5%A4%AB</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B_(%E9%BA%BB%E7%9C%81)</t>
   </si>
   <si>
-    <t>劍橋 (麻省)</t>
+    <t>剑桥 (麻省)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Tech_(newspaper)</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%A4%A7%E5%AD%B8%E9%AB%94%E8%82%B2%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>國家大學體育協會</t>
+    <t>国家大学体育协会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/New_England_Women%27s_and_Men%27s_Athletic_Conference</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%AD%B8%E9%99%A2%E8%88%87%E5%A4%A7%E5%AD%B8%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>美國學院與大學協會</t>
+    <t>美国学院与大学协会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Association_of_Independent_Colleges_and_Universities_in_Massachusetts</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%AD%97%E6%AF%8D%E7%B8%AE%E7%95%A5%E5%AD%97</t>
   </si>
   <si>
-    <t>首字母縮略字</t>
+    <t>首字母缩略字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Technological_and_industrial_history_of_the_United_States</t>
@@ -257,37 +257,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>應用科學</t>
+    <t>应用科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>工程學</t>
+    <t>工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%B0</t>
   </si>
   <si>
-    <t>二戰</t>
+    <t>二战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>冷戰</t>
+    <t>冷战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>電腦</t>
+    <t>电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E9%81%94</t>
   </si>
   <si>
-    <t>雷達</t>
+    <t>雷达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%AF%E6%80%A7%E5%AF%BC%E8%88%AA%E7%B3%BB%E7%BB%9F</t>
@@ -311,37 +311,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>物理科學</t>
+    <t>物理科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>生命科學</t>
+    <t>生命科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
+    <t>经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>管理學</t>
+    <t>管理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E5%AD%B8</t>
   </si>
   <si>
-    <t>語言學</t>
+    <t>语言学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%A4%A7%E5%AD%B8%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%8D%8E%E5%BE%97%E4%B8%BB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各大學諾貝爾獎得主列表</t>
+    <t>各大学诺贝尔奖得主列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E7%A7%91%E5%AD%A6%E5%A5%96%E7%AB%A0</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E7%88%BE%E8%8C%B2%E7%8D%8E</t>
   </si>
   <si>
-    <t>菲爾茲獎</t>
+    <t>菲尔兹奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E7%81%B5%E5%A5%96</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC%E5%88%97%E8%A1%A8_(%E5%9C%8B%E9%9A%9B%E5%8C%AF%E7%8E%87)</t>
   </si>
   <si>
-    <t>各國國內生產總值列表 (國際匯率)</t>
+    <t>各国国内生产总值列表 (国际汇率)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Stereoscope</t>
@@ -395,19 +395,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>後灣區</t>
+    <t>后湾区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>麻省議會</t>
+    <t>麻省议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E5%B7%B4%E9%A0%93%C2%B7%E7%BE%85%E5%82%91%E6%96%AF</t>
   </si>
   <si>
-    <t>威廉·巴頓·羅傑斯</t>
+    <t>威廉·巴顿·罗杰斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/John_Albion_Andrew</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>職業教育</t>
+    <t>职业教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E9%9B%85%E6%95%99%E8%82%B2</t>
@@ -431,19 +431,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>美國內戰</t>
+    <t>美国内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E7%89%B9%E5%A0%A1%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>桑特堡戰役</t>
+    <t>桑特堡战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%9C%B0%E6%92%A5%E8%B4%88%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>土地撥贈法案</t>
+    <t>土地拨赠法案</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Francis_Amasa_Walker</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哈佛大學</t>
+    <t>哈佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E8%89%BE%E7%95%A5%E7%89%B9</t>
@@ -467,13 +467,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>哈佛學院</t>
+    <t>哈佛学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E7%B4%84%E7%BF%B0%C2%B7%E4%BF%9D%E7%88%BE%E6%A3%AE%E5%B7%A5%E7%A8%8B%E8%88%87%E6%87%89%E7%94%A8%E7%A7%91%E5%AD%B8%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>哈佛約翰·保爾森工程與應用科學學院</t>
+    <t>哈佛约翰·保尔森工程与应用科学学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%AB%E6%B5%B7</t>
@@ -497,13 +497,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B9%E6%96%AF%E7%89%B9_(%E7%B4%90%E7%B4%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>羅徹斯特 (紐約州)</t>
+    <t>罗彻斯特 (纽约州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E4%BC%8A%E5%A3%AB%E6%9B%BC</t>
   </si>
   <si>
-    <t>喬治·伊士曼</t>
+    <t>乔治·伊士曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%A3%AB%E6%9B%BC%E6%9F%AF%E8%BE%BE%E5%85%AC%E5%8F%B8</t>
@@ -533,13 +533,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>物理學</t>
+    <t>物理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>化學</t>
+    <t>化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E6%98%A5%E8%97%A4%E7%9B%9F%E6%A0%A1</t>
@@ -551,19 +551,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E6%96%AF%E9%9A%86%E7%AE%A1%E7%90%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>麻省理工斯隆管理學院</t>
+    <t>麻省理工斯隆管理学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E7%90%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>麻省理工理學院</t>
+    <t>麻省理工理学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%B7%A5%E7%A8%8B%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>麻省理工工程學院</t>
+    <t>麻省理工工程学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Howard_Wesley_Johnson</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E7%A0%94%E7%A9%B6%E8%88%87%E7%99%BC%E5%B1%95%E9%83%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>科學研究與發展部 (美國)</t>
+    <t>科学研究与发展部 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Radiation_Laboratory_(MIT)</t>
@@ -629,13 +629,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%80%E8%9E%BA%E5%84%80</t>
   </si>
   <si>
-    <t>陀螺儀</t>
+    <t>陀螺仪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%A7%E6%BA%96%E5%99%A8</t>
   </si>
   <si>
-    <t>照準器</t>
+    <t>照准器</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bombsight</t>
@@ -653,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%8B%E9%A2%A8%E8%A8%88%E7%AE%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>旋風計算機</t>
+    <t>旋风计算机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Harold_Eugene_Edgerton</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BE%85%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>阿波羅計劃</t>
+    <t>阿波罗计划</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Julius_Adams_Stratton</t>
@@ -701,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E6%88%B0</t>
   </si>
   <si>
-    <t>越戰</t>
+    <t>越战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Union_of_Concerned_Scientists</t>
@@ -713,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2%E6%9E%97%E8%82%AF%E5%AF%A6%E9%A9%97%E5%AE%A4</t>
   </si>
   <si>
-    <t>麻省理工學院林肯實驗室</t>
+    <t>麻省理工学院林肯实验室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AA%92%E4%BD%93%E5%AE%9E%E9%AA%8C%E5%AE%A4</t>
@@ -725,55 +725,55 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E8%81%BF%E9%8A%98</t>
   </si>
   <si>
-    <t>貝聿銘</t>
+    <t>贝聿铭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A7%99%E6%96%87%E5%BD%A5</t>
   </si>
   <si>
-    <t>槙文彥</t>
+    <t>槙文彦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GNU%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>GNU計劃</t>
+    <t>GNU计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E4%BB%B6%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>自由軟件運動</t>
+    <t>自由软件运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6%E7%B6%B2%E7%B5%A1</t>
   </si>
   <si>
-    <t>電腦網絡</t>
+    <t>电脑网络</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E9%9B%BB%E8%85%A6%E7%A7%91%E5%AD%B8%E8%88%87%E4%BA%BA%E5%B7%A5%E6%99%BA%E8%83%BD%E5%AF%A6%E9%A9%97%E5%AE%A4</t>
   </si>
   <si>
-    <t>麻省理工電腦科學與人工智能實驗室</t>
+    <t>麻省理工电脑科学与人工智能实验室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%B7%AF%E6%A8%A1%E5%9E%8B%E6%8A%80%E8%A1%93%E4%BF%B1%E6%A8%82%E9%83%A8</t>
   </si>
   <si>
-    <t>鐵路模型技術俱樂部</t>
+    <t>铁路模型技术俱乐部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>電子遊戲</t>
+    <t>电子游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E4%B9%8B%E6%88%B0_(%E9%9B%BB%E5%AD%90%E9%81%8A%E6%88%B2)</t>
   </si>
   <si>
-    <t>太空之戰 (電子遊戲)</t>
+    <t>太空之战 (电子游戏)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%AE%A2</t>
@@ -797,31 +797,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E4%BB%B6%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>自由軟件基金會</t>
+    <t>自由软件基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%A4%E6%8B%89%E6%96%AF%C2%B7%E5%B0%BC%E8%91%9B%E6%B4%9B%E9%BE%90%E5%B8%9D</t>
   </si>
   <si>
-    <t>尼古拉斯·尼葛洛龐帝</t>
+    <t>尼古拉斯·尼葛洛庞帝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E5%A7%86%C2%B7%E6%9F%8F%E5%85%A7%E8%8C%B2-%E6%9D%8E</t>
   </si>
   <si>
-    <t>提姆·柏內茲-李</t>
+    <t>提姆·柏内兹-李</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>標準組織</t>
+    <t>标准组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E7%B6%AD%E7%B6%B2%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>萬維網聯盟</t>
+    <t>万维网联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/OLPC</t>
@@ -833,31 +833,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%8C%E6%AC%BE</t>
   </si>
   <si>
-    <t>籌款</t>
+    <t>筹款</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學</t>
+    <t>生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經科學</t>
+    <t>神经科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%82%B3%E5%AD%B8</t>
   </si>
   <si>
-    <t>遺傳學</t>
+    <t>遗传学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>生物技術</t>
+    <t>生物技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%8C%E7%97%87</t>
@@ -893,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%BC%8F%E8%AA%B2%E7%A8%8B%E7%B6%B2%E9%A0%81</t>
   </si>
   <si>
-    <t>開放式課程網頁</t>
+    <t>开放式课程网页</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Problem_set</t>
@@ -911,13 +911,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E9%A6%AC%E6%8B%89%E6%9D%BE%E7%88%86%E7%82%B8%E6%A1%88</t>
   </si>
   <si>
-    <t>波士頓馬拉松爆炸案</t>
+    <t>波士顿马拉松爆炸案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -983,13 +983,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%88%BE%C2%B7%E8%93%8B%E8%8C%A8</t>
   </si>
   <si>
-    <t>比爾·蓋茨</t>
+    <t>比尔·盖茨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%C2%B7%E8%93%8B%E7%91%9E</t>
   </si>
   <si>
-    <t>法蘭克·蓋瑞</t>
+    <t>法兰克·盖瑞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BD%AF%E5%85%AC%E5%8F%B8</t>
@@ -1049,7 +1049,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8B%BC%E7%AD%8B%E6%B7%B7%E5%87%9D%E5%9C%9F</t>
   </si>
   <si>
-    <t>鋼筋混凝土</t>
+    <t>钢筋混凝土</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E7%BE%8E%E5%8C%96%E8%BF%90%E5%8A%A8</t>
@@ -1061,13 +1061,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E7%A5%9E%E5%BB%9F</t>
   </si>
   <si>
-    <t>萬神廟</t>
+    <t>万神庙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E7%93%A6%E7%88%BE%C2%B7%E9%98%BF%E7%88%BE%E6%89%98</t>
   </si>
   <si>
-    <t>阿爾瓦爾·阿爾托</t>
+    <t>阿尔瓦尔·阿尔托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%BD%97%C2%B7%E6%B2%99%E9%87%8C%E5%AE%81</t>
@@ -1103,13 +1103,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%9E%97%E6%96%AF%E9%A0%93%E8%A9%95%E8%AB%96</t>
   </si>
   <si>
-    <t>普林斯頓評論</t>
+    <t>普林斯顿评论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>董事會</t>
+    <t>董事会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Governor_of_Massachusetts</t>
@@ -1127,7 +1127,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B-%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E9%86%AB%E7%99%82%E7%A7%91%E6%8A%80%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>哈佛-麻省理工醫療科技學院</t>
+    <t>哈佛-麻省理工医疗科技学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SAT</t>
@@ -1145,7 +1145,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD%E5%AD%B8%E6%A0%A1%E8%88%87%E5%AD%B8%E9%99%A2%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>新英格蘭學校與學院協會</t>
+    <t>新英格兰学校与学院协会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Educational_accreditation</t>
@@ -1163,13 +1163,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E7%A9%8D%E5%88%86</t>
   </si>
   <si>
-    <t>微積分</t>
+    <t>微积分</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8</t>
   </si>
   <si>
-    <t>數學</t>
+    <t>数学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E6%B3%B3</t>
@@ -1181,7 +1181,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%82%B2</t>
   </si>
   <si>
-    <t>體育</t>
+    <t>体育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E6%9C%9F%E5%88%8A</t>
@@ -1211,13 +1211,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E7%B7%92</t>
   </si>
   <si>
-    <t>情緒</t>
+    <t>情绪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A7%E5%AD%B8%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>美國大學協會</t>
+    <t>美国大学协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%B8%8E%E5%85%AC%E5%85%B1%E6%9C%8D%E5%8A%A1%E9%83%A8</t>
@@ -1229,13 +1229,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%98%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>美國國防部</t>
+    <t>美国国防部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%83%BD%E6%BA%90%E9%83%A8</t>
   </si>
   <si>
-    <t>美國能源部</t>
+    <t>美国能源部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E7%A7%91%E5%AD%A6%E5%9F%BA%E9%87%91%E4%BC%9A</t>
@@ -1247,13 +1247,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%AA%E7%A9%BA%E7%B8%BD%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國太空總署</t>
+    <t>美国太空总署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A3%81%E8%8A%AF%E8%A8%98%E6%86%B6%E9%AB%94</t>
   </si>
   <si>
-    <t>磁芯記憶體</t>
+    <t>磁芯记忆体</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Coulomb_blockade</t>
@@ -1265,13 +1265,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B2%E7%B4%8D</t>
   </si>
   <si>
-    <t>聲納</t>
+    <t>声纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%8B%9E%E5%BE%B7%C2%B7%E5%A4%8F%E8%BE%B2</t>
   </si>
   <si>
-    <t>克勞德·夏農</t>
+    <t>克劳德·夏农</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E8%AE%BA</t>
@@ -1283,31 +1283,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%A2%BC%E9%9B%BB%E8%B7%AF</t>
   </si>
   <si>
-    <t>數碼電路</t>
+    <t>数码电路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%8F%E8%BC%AF%E4%BB%A3%E6%95%B8</t>
   </si>
   <si>
-    <t>邏輯代數</t>
+    <t>逻辑代数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>電腦科學</t>
+    <t>电脑科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E4%BC%AF%E7%89%B9%C2%B7%E7%B6%AD%E7%B4%8D</t>
   </si>
   <si>
-    <t>諾伯特·維納</t>
+    <t>诺伯特·维纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%96%87%C2%B7%E9%96%94%E6%96%AF%E5%9F%BA</t>
   </si>
   <si>
-    <t>馬文·閔斯基</t>
+    <t>马文·闵斯基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E7%BB%B4%E6%A3%AE%E9%B2%8D%E5%A7%86</t>
@@ -1355,43 +1355,43 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E7%89%A9%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>量子物理學</t>
+    <t>量子物理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E5%90%88%E6%88%90</t>
   </si>
   <si>
-    <t>化學合成</t>
+    <t>化学合成</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E7%96%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>免疫學</t>
+    <t>免疫学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%AB%E7%98%A4%E5%AD%B8</t>
   </si>
   <si>
-    <t>腫瘤學</t>
+    <t>肿瘤学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E5%AD%90%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>分子生物學</t>
+    <t>分子生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E5%AD%90%E9%9B%BB%E5%AD%90%E5%81%B6</t>
   </si>
   <si>
-    <t>正子電子偶</t>
+    <t>正子电子偶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A4%E5%B0%BC%E8%A5%BF%E6%9E%97</t>
   </si>
   <si>
-    <t>盤尼西林</t>
+    <t>盘尼西林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%8C%E8%90%8E%E7%BC%A9%E6%80%A7%E8%84%8A%E9%AB%93%E4%BE%A7%E7%B4%A2%E7%A1%AC%E5%8C%96%E7%97%87</t>
@@ -1403,7 +1403,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E4%B8%81%E9%A0%93%E8%88%9E%E8%B9%88%E7%97%87</t>
   </si>
   <si>
-    <t>亨丁頓舞蹈症</t>
+    <t>亨丁顿舞蹈症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%87%8C%E5%85%8B%C2%B7%E5%85%B0%E5%BE%B7</t>
@@ -1427,7 +1427,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E8%B2%9D%E8%8C%A8%C2%B7%E5%85%8B%E6%8B%89%E5%85%8B%E7%8D%8E</t>
   </si>
   <si>
-    <t>約翰·貝茨·克拉克獎</t>
+    <t>约翰·贝茨·克拉克奖</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Morris_Halle</t>
@@ -1439,7 +1439,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E5%A7%86%C2%B7%E6%9D%AD%E5%A3%AB%E5%9F%BA</t>
   </si>
   <si>
-    <t>諾姆·杭士基</t>
+    <t>诺姆·杭士基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%88%90%E6%96%87%E6%B3%95</t>
@@ -1451,19 +1451,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E4%BD%8D%E5%AD%B8</t>
   </si>
   <si>
-    <t>音位學</t>
+    <t>音位学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E6%A7%8B%E4%B8%BB%E7%BE%A9_(%E5%AD%B8%E7%BF%92%E7%90%86%E8%AB%96)</t>
   </si>
   <si>
-    <t>建構主義 (學習理論)</t>
+    <t>建构主义 (学习理论)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E4%B8%8D%E7%AB%AF%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>科學不端行為</t>
+    <t>科学不端行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%BB%B4%C2%B7%E5%B7%B4%E5%B0%94%E7%9A%84%E6%91%A9</t>
@@ -1481,7 +1481,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A0%94%E7%A9%B6%E6%93%8D%E5%AE%88%E8%AA%BF%E6%9F%A5%E9%83%A8</t>
   </si>
   <si>
-    <t>美國研究操守調查部</t>
+    <t>美国研究操守调查部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%95%86%E5%AD%A6%E9%99%A2</t>
@@ -1493,7 +1493,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E9%9A%AA%E6%8A%95%E8%B3%87</t>
   </si>
   <si>
-    <t>風險投資</t>
+    <t>风险投资</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/American_Research_and_Development_Corporation</t>
@@ -1511,13 +1511,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%96%AF%E7%90%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>衛斯理學院</t>
+    <t>卫斯理学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>波士頓大學</t>
+    <t>波士顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%85%B0%E8%BF%AA%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -1529,7 +1529,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%A4%AB%E8%8C%A8%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>塔夫茨大學</t>
+    <t>塔夫茨大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Massachusetts_College_of_Art_and_Design</t>
@@ -1547,7 +1547,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>劍橋大學</t>
+    <t>剑桥大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Whitehead_Institute</t>
@@ -1559,13 +1559,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E8%8C%B2%E9%9C%8D%E7%88%BE%E6%B5%B7%E6%B4%8B%E7%A0%94%E7%A9%B6%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>伍茲霍爾海洋研究中心</t>
+    <t>伍兹霍尔海洋研究中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E7%A7%91%E6%8A%80%E8%A9%95%E8%AB%96</t>
   </si>
   <si>
-    <t>麻省理工科技評論</t>
+    <t>麻省理工科技评论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/MIT_Press</t>
@@ -1583,13 +1583,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>日本經濟</t>
+    <t>日本经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%B8%E6%B3%95%E9%83%A8</t>
   </si>
   <si>
-    <t>美國司法部</t>
+    <t>美国司法部</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Price_fixing</t>
@@ -1607,7 +1607,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>大學排名</t>
+    <t>大学排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%A6%E5%AD%A6%E6%9C%AF%E6%8E%92%E5%90%8D</t>
@@ -1625,13 +1625,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E6%99%A4%E5%A3%AB%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>泰晤士高等教育世界大學排名</t>
+    <t>泰晤士高等教育世界大学排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%B0%E8%81%9E%E8%88%87%E4%B8%96%E7%95%8C%E5%A0%B1%E5%B0%8E</t>
   </si>
   <si>
-    <t>美國新聞與世界報導</t>
+    <t>美国新闻与世界报导</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B8%83%E6%96%AF</t>
@@ -1643,25 +1643,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E6%9C%88%E5%88%8A</t>
   </si>
   <si>
-    <t>華盛頓月刊</t>
+    <t>华盛顿月刊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E7%A7%91%E5%AD%B8%E7%A0%94%E7%A9%B6%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國家科學研究委員會</t>
+    <t>美国国家科学研究委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>自然科學</t>
+    <t>自然科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E5%AD%B8</t>
   </si>
   <si>
-    <t>商業學</t>
+    <t>商业学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E9%80%8F%E7%A4%BE</t>
@@ -1679,31 +1679,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約時報</t>
+    <t>纽约时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%99%BD%E4%BA%BA</t>
   </si>
   <si>
-    <t>美國白人</t>
+    <t>美国白人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>亞裔美國人</t>
+    <t>亚裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>拉丁裔美國人</t>
+    <t>拉丁裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>非裔美國人</t>
+    <t>非裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BE%8E%E6%B4%B2%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
@@ -1727,7 +1727,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%80%AB%C2%B7%E6%84%9B%E8%8F%AF%E9%9C%B2%C2%B7%E7%90%86%E6%9F%A5%E8%8C%B2</t>
   </si>
   <si>
-    <t>艾倫·愛華露·理查茲</t>
+    <t>艾伦·爱华露·理查兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E5%8C%96%E5%AD%A6</t>
@@ -1757,19 +1757,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E6%96%87%E5%AD%B8%E4%BD%8D%E6%A6%AE%E8%AD%BD</t>
   </si>
   <si>
-    <t>拉丁文學位榮譽</t>
+    <t>拉丁文学位荣誉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E6%96%AF%E9%A0%93%C2%B7%E4%B8%98%E5%90%89%E7%88%BE</t>
   </si>
   <si>
-    <t>溫斯頓·丘吉爾</t>
+    <t>温斯顿·丘吉尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E6%9B%BC%C2%B7%E9%AD%AF%E8%A5%BF%E8%BF%AA</t>
   </si>
   <si>
-    <t>薩爾曼·魯西迪</t>
+    <t>萨尔曼·鲁西迪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%AD%97%E6%AF%8D%E7%BC%A9%E5%86%99</t>
@@ -1781,7 +1781,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E-%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2%E7%AB%B6%E7%88%AD</t>
   </si>
   <si>
-    <t>加州-麻省理工學院競爭</t>
+    <t>加州-麻省理工学院竞争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%96%87%E5%8C%96</t>
@@ -1793,7 +1793,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%84%E5%BC%9F%E6%9C%83%E8%88%87%E5%A7%8A%E5%A6%B9%E6%9C%83</t>
   </si>
   <si>
-    <t>兄弟會與姊妹會</t>
+    <t>兄弟会与姊妹会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E6%B9%BE</t>
@@ -1805,25 +1805,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E8%98%AD%E7%A7%91%C2%B7%E8%8E%AB%E8%BF%AA%E5%88%A9%E5%AE%89%E5%B0%BC</t>
   </si>
   <si>
-    <t>弗蘭科·莫迪利安尼</t>
+    <t>弗兰科·莫迪利安尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E6%A3%AE%E7%A9%86%E9%81%9C</t>
   </si>
   <si>
-    <t>保羅·森穆遜</t>
+    <t>保罗·森穆逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%8B%94%C2%B7%E7%B4%A2%E6%B4%9B</t>
   </si>
   <si>
-    <t>羅拔·索洛</t>
+    <t>罗拔·索洛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%8D%8E</t>
   </si>
   <si>
-    <t>諾貝爾獎</t>
+    <t>诺贝尔奖</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/National_Medal_of_Technology_and_Innovation</t>
@@ -1835,13 +1835,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%A0%B9%E6%B5%B7%E5%A7%86%E7%8D%8E%E5%AD%B8%E9%87%91</t>
   </si>
   <si>
-    <t>古根海姆獎學金</t>
+    <t>古根海姆奖学金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%85%E7%88%BE%E5%B8%83%E8%90%8A%E7%89%B9%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>傅爾布萊特計畫</t>
+    <t>傅尔布莱特计画</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Marcia_McNutt</t>
@@ -1853,7 +1853,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E8%B3%AA%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>美國地質調查局</t>
+    <t>美国地质调查局</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Xavier_Briggs</t>
@@ -1865,7 +1865,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E7%AE%A1%E7%90%86%E8%88%87%E9%A0%90%E7%AE%97%E5%B1%80</t>
   </si>
   <si>
-    <t>美國行政管理與預算局</t>
+    <t>美国行政管理与预算局</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_President%27s_Council_of_Advisors_on_Science_and_Technology</t>
@@ -1883,7 +1883,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%83%BD%E6%BA%90%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>美國能源部長</t>
+    <t>美国能源部长</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/David_F._Noble</t>
@@ -1901,7 +1901,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AB%96%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>言論自由</t>
+    <t>言论自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E5%A4%A7%E5%AD%A6</t>
@@ -1913,31 +1913,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E9%A3%9F</t>
   </si>
   <si>
-    <t>絕食</t>
+    <t>绝食</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E7%8F%8A%C2%B7%E9%9C%8D%E5%85%8B%E8%8F%B2%E7%88%BE%E5%BE%B7</t>
   </si>
   <si>
-    <t>蘇珊·霍克菲爾德</t>
+    <t>苏珊·霍克菲尔德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E7%A5%9E11%E8%99%9F</t>
   </si>
   <si>
-    <t>太陽神11號</t>
+    <t>太阳神11号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%8C%B2%C2%B7%E8%89%BE%E5%BE%B7%E9%9D%88</t>
   </si>
   <si>
-    <t>巴茲·艾德靈</t>
+    <t>巴兹·艾德灵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%A7%98%E6%9B%B8%E9%95%B7</t>
   </si>
   <si>
-    <t>聯合國秘書長</t>
+    <t>联合国秘书长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%8F%B2%C2%B7%E5%AE%89%E5%8D%97</t>
@@ -1949,7 +1949,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%AD%87%E7%88%BE%E7%8D%8E%E5%AD%B8%E9%87%91</t>
   </si>
   <si>
-    <t>馬歇爾獎學金</t>
+    <t>马歇尔奖学金</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Chair_of_the_Federal_Reserve</t>
@@ -1991,13 +1991,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E8%96%A9%E9%BB%98%E6%96%AF</t>
   </si>
   <si>
-    <t>勞倫斯·薩默斯</t>
+    <t>劳伦斯·萨默斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E7%B6%93%E6%BF%9F%E9%A1%A7%E5%95%8F%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>美國總統經濟顧問委員會</t>
+    <t>美国总统经济顾问委员会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Christina_Romer</t>
@@ -2015,13 +2015,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>以色列總理</t>
+    <t>以色列总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%82%91%E6%98%8E%C2%B7%E7%B4%8D%E5%9D%A6%E5%B0%BC%E9%9B%85%E8%83%A1</t>
   </si>
   <si>
-    <t>班傑明·納坦尼雅胡</t>
+    <t>班杰明·纳坦尼雅胡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E4%B8%AD%E5%A4%AE%E9%93%B6%E8%A1%8C%E8%A1%8C%E9%95%BF</t>
@@ -2033,7 +2033,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%A5%A7%C2%B7%E5%BE%B7%E6%8B%89%E5%90%89</t>
   </si>
   <si>
-    <t>馬里奧·德拉吉</t>
+    <t>马里奥·德拉吉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%82%A8%E5%A4%87%E9%93%B6%E8%A1%8C</t>
@@ -2051,13 +2051,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E5%8F%8A%E8%81%AF%E9%82%A6%E4%BA%8B%E5%8B%99%E5%A4%A7%E8%87%A3</t>
   </si>
   <si>
-    <t>外交及聯邦事務大臣</t>
+    <t>外交及联邦事务大臣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E7%A6%AE%E5%BD%AC</t>
   </si>
   <si>
-    <t>文禮彬</t>
+    <t>文礼彬</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E6%80%BB%E7%90%86</t>
@@ -2081,7 +2081,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%89%B9%E7%88%BE</t>
   </si>
   <si>
-    <t>英特爾</t>
+    <t>英特尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E8%AF%BA%E4%BC%8A%E6%96%AF</t>
@@ -2093,19 +2093,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%E5%94%90%E7%B4%8D%E9%A3%9B%E8%A1%8C%E5%99%A8%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>麥克唐納飛行器公司</t>
+    <t>麦克唐纳飞行器公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%8F%B2%E5%AF%86%E6%96%AF%C2%B7%E9%BA%A5%E5%85%8B%E5%94%90%E7%B4%8D</t>
   </si>
   <si>
-    <t>詹姆斯·史密斯·麥克唐納</t>
+    <t>詹姆斯·史密斯·麦克唐纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF%E9%A3%9B%E8%A1%8C%E5%99%A8%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>道格拉斯飛行器公司</t>
+    <t>道格拉斯飞行器公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E5%94%90%E7%BA%B3%E5%BE%B7%C2%B7%E5%A8%81%E5%B0%94%E5%A3%AB%C2%B7%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF</t>
@@ -2123,13 +2123,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E6%A2%85%E7%89%B9%E5%8D%A1%E5%A4%AB</t>
   </si>
   <si>
-    <t>羅伯特·梅特卡夫</t>
+    <t>罗伯特·梅特卡夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B7%9E%E5%84%80%E5%99%A8</t>
   </si>
   <si>
-    <t>德州儀器</t>
+    <t>德州仪器</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cecil_Howard_Green</t>
@@ -2153,7 +2153,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%A3%AB%E9%9F%B3%E9%9F%BF</t>
   </si>
   <si>
-    <t>博士音響</t>
+    <t>博士音响</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Amar_Bose</t>
@@ -2165,7 +2165,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%B0%8F%E5%B7%A5%E6%A5%AD%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>科氏工業集團</t>
+    <t>科氏工业集团</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fred_C._Koch</t>
@@ -2177,7 +2177,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E5%85%8B%E5%A8%81%E7%88%BE</t>
   </si>
   <si>
-    <t>洛克威爾</t>
+    <t>洛克威尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E6%B3%B0%E5%85%8B</t>
@@ -2201,7 +2201,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E9%AD%AF%C2%B7%E4%BC%91%E6%96%AF%E9%A0%93</t>
   </si>
   <si>
-    <t>德魯·休斯頓</t>
+    <t>德鲁·休斯顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%AE%9D%E6%B1%A4%E5%85%AC%E5%8F%B8</t>
@@ -2219,7 +2219,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E5%A0%B1</t>
   </si>
   <si>
-    <t>衛報</t>
+    <t>卫报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E4%BA%BA</t>
@@ -2231,7 +2231,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E7%A5%9E%E7%99%BB%E6%9C%88%E8%89%87</t>
   </si>
   <si>
-    <t>太陽神登月艇</t>
+    <t>太阳神登月艇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%86%9B%E4%BA%8B%E9%99%A2%E6%A0%A1</t>
@@ -2243,13 +2243,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%A2%E5%AD%B8%E6%A3%AE</t>
   </si>
   <si>
-    <t>錢學森</t>
+    <t>钱学森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%C2%B7%E6%B4%9B%E5%A4%AB%E5%BB%B7</t>
@@ -2273,31 +2273,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>英國廣播公司</t>
+    <t>英国广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E9%9B%BB%E8%A6%96%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>獨立電視新聞</t>
+    <t>独立电视新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%B6%93%E6%BF%9F%E5%AD%B8%E7%8D%8E</t>
   </si>
   <si>
-    <t>諾貝爾經濟學獎</t>
+    <t>诺贝尔经济学奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E5%85%8B%E9%AD%AF%E6%98%8E</t>
   </si>
   <si>
-    <t>保羅·克魯明</t>
+    <t>保罗·克鲁明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%98%E5%BD%A2%E6%9B%B2%E7%B7%9A%EF%BC%9A%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E4%B8%AD%E7%9A%84%E6%99%BA%E5%8A%9B%E8%88%87%E9%9A%8E%E5%B1%A4%E7%B5%90%E6%A7%8B</t>
   </si>
   <si>
-    <t>鐘形曲線：美國社會中的智力與階層結構</t>
+    <t>钟形曲线：美国社会中的智力与阶层结构</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cass_Gilbert</t>
@@ -2309,7 +2309,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%AB%8B%E8%8C%B2%E5%85%8B%E7%8D%8E</t>
   </si>
   <si>
-    <t>普立茲克獎</t>
+    <t>普立兹克奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E7%99%BB%E9%82%A6%C2%B7%E6%B2%99%E5%A4%AB%E7%89%B9</t>
@@ -2333,7 +2333,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>時代雜誌</t>
+    <t>时代杂志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Quacquarelli_Symonds</t>
@@ -2345,13 +2345,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>麻省理工學院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/L.%E6%8B%89%E6%96%90%E7%88%BE%C2%B7%E8%B3%B4%E5%A4%AB</t>
   </si>
   <si>
-    <t>L.拉斐爾·賴夫</t>
+    <t>L.拉斐尔·赖夫</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_Institute_Professors_at_the_Massachusetts_Institute_of_Technology</t>
@@ -2393,7 +2390,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2%E6%95%B8%E5%AD%B8%E7%B3%BB</t>
   </si>
   <si>
-    <t>麻省理工學院數學系</t>
+    <t>麻省理工学院数学系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MIT%E6%96%AF%E9%9A%86%E7%AE%A1%E7%90%86%E5%AD%A6%E9%99%A2</t>
@@ -2429,13 +2426,13 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E5%A4%A7%E5%AD%B8%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>Template talk-美國大學協會</t>
+    <t>Template talk-美国大学协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>公立大學</t>
+    <t>公立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%A4%A7%E5%AD%A6</t>
@@ -2453,7 +2450,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%9F%8F%E5%85%8B%E8%90%8A%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學柏克萊分校</t>
+    <t>加州大学柏克莱分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E6%88%B4%E7%BB%B4%E6%96%AF%E5%88%86%E6%A0%A1</t>
@@ -2465,7 +2462,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E7%88%BE%E7%81%A3%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學爾灣分校</t>
+    <t>加州大学尔湾分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E6%B4%9B%E6%9D%89%E7%9F%B6%E5%88%86%E6%A0%A1</t>
@@ -2489,7 +2486,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>科羅拉多大學</t>
+    <t>科罗拉多大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%A4%A7%E5%AD%A6</t>
@@ -2507,7 +2504,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>伊利諾大學</t>
+    <t>伊利诺大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%A4%A7%E5%AD%A6</t>
@@ -2537,7 +2534,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%A4%A7%E5%AD%B8%E5%AD%B8%E9%99%A2%E5%B8%82%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>馬里蘭大學學院市分校</t>
+    <t>马里兰大学学院市分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%A4%A7%E5%AD%A6</t>
@@ -2567,25 +2564,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>紐約州立大學</t>
+    <t>纽约州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E6%B0%B4%E7%89%9B%E5%9F%8E%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>紐約州立大學水牛城分校</t>
+    <t>纽约州立大学水牛城分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%BA%AA%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>石溪大學</t>
+    <t>石溪大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>北卡羅來納大學</t>
+    <t>北卡罗来纳大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%A4%A7%E5%AD%A6%E6%95%99%E5%A0%82%E5%B1%B1%E5%88%86%E6%A0%A1</t>
@@ -2603,7 +2600,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>俄勒岡大學</t>
+    <t>俄勒冈大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -2615,13 +2612,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E8%8C%B2%E5%A0%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>匹茲堡大學</t>
+    <t>匹兹堡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%B8%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>普渡大學</t>
+    <t>普渡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%A0%BC%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -2633,13 +2630,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%A5%A7%E6%96%AF%E6%B1%80%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>德克薩斯州立大學奧斯汀分校</t>
+    <t>德克萨斯州立大学奥斯汀分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B7%9E%E8%BE%B2%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>德州農工大學</t>
+    <t>德州农工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%A4%A7%E5%AD%A6</t>
@@ -2681,7 +2678,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%96%AF%E8%A5%BF%E5%84%B2%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>凱斯西儲大學</t>
+    <t>凯斯西储大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E5%AD%A6</t>
@@ -2699,7 +2696,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>康乃爾大學</t>
+    <t>康乃尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%85%8B%E5%A4%A7%E5%AD%A6</t>
@@ -2711,15 +2708,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%BB%98%E9%87%8C%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>埃默里大學</t>
+    <t>埃默里大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>哈佛大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E9%9C%8D%E6%99%AE%E9%87%91%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
@@ -2753,13 +2747,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>萊斯大學</t>
+    <t>莱斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B9%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>羅徹斯特大學</t>
+    <t>罗彻斯特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6</t>
@@ -2771,13 +2765,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>史丹佛大學</t>
+    <t>史丹佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E8%98%AD%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>杜蘭大學</t>
+    <t>杜兰大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E5%BE%B7%E5%A0%A1%E5%A4%A7%E5%AD%A6</t>
@@ -2807,19 +2801,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>多倫多大學</t>
+    <t>多伦多大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A9%E4%B8%BB%E6%95%99%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>美國天主教大學</t>
+    <t>美国天主教大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>克拉克大學</t>
+    <t>克拉克大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E5%9F%8E%E5%A4%A7%E5%AD%A6</t>
@@ -2843,7 +2837,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%A4%A7%E5%AD%B8%E4%BC%AF%E6%98%8E%E7%BF%B0%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>阿拉巴馬大學伯明翰分校</t>
+    <t>阿拉巴马大学伯明翰分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%A4%A7%E5%AD%A6%E4%BA%A8%E8%8C%A8%E7%BB%B4%E5%B0%94%E5%88%86%E6%A0%A1</t>
@@ -2861,13 +2855,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9C%AC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>奧本大學</t>
+    <t>奥本大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%8B%92%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>貝勒大學</t>
+    <t>贝勒大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%A4%A7%E5%AD%A6</t>
@@ -2879,7 +2873,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E6%89%98%E5%BC%97%E6%96%B0%E6%B8%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>克里斯托弗新港大學</t>
+    <t>克里斯托弗新港大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%8E%B1%E9%97%A8%E6%A3%AE%E5%A4%A7%E5%AD%A6</t>
@@ -2897,7 +2891,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>東卡羅來納大學</t>
+    <t>东卡罗来纳大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%A4%A7%E5%AD%A6</t>
@@ -2909,13 +2903,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>佛羅里達理工學院</t>
+    <t>佛罗里达理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%9C%8B%E9%9A%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>佛羅里達國際大學</t>
+    <t>佛罗里达国际大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -2927,13 +2921,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E6%A2%85%E6%A3%AE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>喬治梅森大學</t>
+    <t>乔治梅森大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>喬治華盛頓大學</t>
+    <t>乔治华盛顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%E5%9F%8E%E5%A4%A7%E5%AD%A6</t>
@@ -2945,31 +2939,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>喬治亞大學</t>
+    <t>乔治亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>喬治亞州立大學</t>
+    <t>乔治亚州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%99%AE%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>漢普頓大學</t>
+    <t>汉普顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>休士頓大學</t>
+    <t>休士顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%E9%BA%A5%E8%BF%AA%E9%81%9C%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>詹姆斯麥迪遜大學</t>
+    <t>詹姆斯麦迪逊大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%A4%A7%E5%AD%A6</t>
@@ -2981,19 +2975,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%A4%A7%E5%AD%B8%E6%8B%89%E6%B3%95%E8%91%89%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>路易斯安那大學拉法葉分校</t>
+    <t>路易斯安那大学拉法叶分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>路易斯安那州立大學</t>
+    <t>路易斯安那州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>路易斯安那理工大學</t>
+    <t>路易斯安那理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%A4%A7%E5%AD%A6%E5%B7%B4%E5%B0%94%E7%9A%84%E6%91%A9%E5%8E%BF%E5%88%86%E6%A0%A1</t>
@@ -3011,7 +3005,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%98%BF%E5%AF%86%E5%A4%A7%E5%AD%B8_(%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E)</t>
   </si>
   <si>
-    <t>邁阿密大學 (佛罗里达州)</t>
+    <t>迈阿密大学 (佛罗里达州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%A4%A7%E5%AD%A6</t>
@@ -3029,13 +3023,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%A5%A7%E8%89%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>紐奧良大學</t>
+    <t>纽奥良大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E7%A6%8F%E5%85%8B%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>諾福克州立大學</t>
+    <t>诺福克州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E%E7%AB%8B%E5%86%9C%E4%B8%9A%E6%8A%80%E6%9C%AF%E5%A4%A7%E5%AD%A6</t>
@@ -3053,13 +3047,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>奧克拉荷馬大學</t>
+    <t>奥克拉荷马大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E9%81%93%E6%98%8E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>老道明大學</t>
+    <t>老道明大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E8%B4%BE%E7%BA%B3%E5%A4%A7%E5%AD%A6</t>
@@ -3077,7 +3071,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>南卡羅來納大學</t>
+    <t>南卡罗来纳大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%A4%A7%E5%AD%A6</t>
@@ -3089,19 +3083,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>南密西西比大學</t>
+    <t>南密西西比大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>田納西大學</t>
+    <t>田纳西大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E%E5%A4%A7%E5%AD%B8%E5%A5%A7%E6%96%AF%E6%B1%80%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>德克薩斯州大學奧斯汀分校</t>
+    <t>德克萨斯州大学奥斯汀分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9EA%26M%E5%A4%A7%E5%AD%A6</t>
@@ -3113,7 +3107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E8%81%AF%E9%82%A6%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>維吉尼亞聯邦大學</t>
+    <t>维吉尼亚联邦大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E7%90%86%E5%B7%A5%E5%AD%A6%E9%99%A2%E6%9A%A8%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -3125,25 +3119,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>弗吉尼亞州立大學</t>
+    <t>弗吉尼亚州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>西弗吉尼亞大學</t>
+    <t>西弗吉尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%E8%88%87%E7%91%AA%E9%BA%97%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>威廉與瑪麗學院</t>
+    <t>威廉与玛丽学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E9%81%94%E8%8D%B7%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>愛達荷州立大學</t>
+    <t>爱达荷州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%A4%A7%E5%AD%A6</t>
@@ -3155,157 +3149,151 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E8%BB%8D%E6%8A%80%E8%A1%93%E5%AD%B8%E9%99%A2_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>空軍技術學院 (美國)</t>
+    <t>空军技术学院 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>亞利桑那州立大學</t>
+    <t>亚利桑那州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>阿肯色理工大學</t>
+    <t>阿肯色理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%8E%AB%E7%B4%8D%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>波莫納加州州立理工大學</t>
+    <t>波莫纳加州州立理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E7%90%86%E5%B7%A5%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加州理工州立大學</t>
+    <t>加州理工州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E7%A4%A6%E6%A5%AD%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>科羅拉多礦業學院</t>
+    <t>科罗拉多矿业学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>佛羅里達理工大學</t>
+    <t>佛罗里达理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>喬治亞理工大學</t>
+    <t>乔治亚理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%8D%B7%E8%8F%AF%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>愛荷華州立大學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%A0%B9%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>密西根理工大學</t>
+    <t>密西根理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E7%A7%91%E6%8A%80%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>密蘇里科技大學</t>
+    <t>密苏里科技大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%A4%A7%E5%AD%B8%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>蒙大拿大學理工學院</t>
+    <t>蒙大拿大学理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BE%A4%E8%A5%BF%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>新澤西理工學院</t>
+    <t>新泽西理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%A4%A6%E6%A5%AD%E5%8F%8A%E7%A7%91%E6%8A%80%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>新墨西哥礦業及科技學院</t>
+    <t>新墨西哥矿业及科技学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>俄勒岡理工學院</t>
+    <t>俄勒冈理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%81%94%E7%A7%91%E4%BB%96%E7%A4%A6%E6%A5%AD%E5%8F%8A%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>南達科他礦業及理工學院</t>
+    <t>南达科他矿业及理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>紐約州立大學理工學院</t>
+    <t>纽约州立大学理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>田納西理工大學</t>
+    <t>田纳西理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>德克薩斯理工大學</t>
+    <t>德克萨斯理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E5%A4%A7%E5%AD%B8%E6%96%AF%E6%89%98%E7%89%B9%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>威斯康星大學斯托特分校</t>
+    <t>威斯康星大学斯托特分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>西弗吉尼亞大學理工學院</t>
+    <t>西弗吉尼亚大学理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加州理工學院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%E6%A3%AE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>克拉克森大學</t>
+    <t>克拉克森大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>科羅拉多理工大學</t>
+    <t>科罗拉多理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%90%89%E5%BD%AD%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>迪吉彭理工學院</t>
+    <t>迪吉彭理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%E6%96%AF%E5%A0%A1%E7%A7%91%E6%8A%80%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哈里斯堡科技大學</t>
+    <t>哈里斯堡科技大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E7%90%86%E5%B7%A5%E5%AD%A6%E9%99%A2</t>
@@ -3317,19 +3305,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>印第安納理工學院</t>
+    <t>印第安纳理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>勞倫斯理工大學</t>
+    <t>劳伦斯理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>新英格蘭理工學院</t>
+    <t>新英格兰理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E7%A7%91%E6%8A%80%E5%AD%A6%E9%99%A2</t>
@@ -3341,7 +3329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>西北理工大學</t>
+    <t>西北理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%96%AF%E5%8B%92%E7%90%86%E5%B7%A5%E5%AD%A6%E9%99%A2</t>
@@ -3359,19 +3347,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%96%AF-%E8%B1%AA%E6%9B%BC%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>羅斯-豪曼理工學院</t>
+    <t>罗斯-豪曼理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E6%96%87%E6%96%AF%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>史蒂文斯理工學院</t>
+    <t>史蒂文斯理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E7%89%B9%E6%B2%83%E6%96%AF%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>溫特沃斯理工學院</t>
+    <t>温特沃斯理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E6%96%AF%E7%89%B9%E7%90%86%E5%B7%A5%E5%AD%A6%E9%99%A2</t>
@@ -3389,13 +3377,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%85%8B%E5%88%A9%E9%9F%B3%E6%A8%82%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>伯克利音樂學院</t>
+    <t>伯克利音乐学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E5%BB%BA%E7%AF%89%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>波士頓建築學院</t>
+    <t>波士顿建筑学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A1%BF%E5%AD%A6%E9%99%A2</t>
@@ -3419,7 +3407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E7%89%B9%E5%9C%8B%E9%9A%9B%E5%95%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>霍特國際商學院</t>
+    <t>霍特国际商学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E8%8D%AF%E7%A7%91%E4%B8%8E%E5%81%A5%E5%BA%B7%E7%A7%91%E5%AD%A6%E5%A4%A7%E5%AD%A6</t>
@@ -3449,7 +3437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%B3%A2%E5%A3%AB%E9%A0%93%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>麻州大學波士頓分校</t>
+    <t>麻州大学波士顿分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E4%B9%89%E7%BD%91</t>
@@ -3515,7 +3503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8D%B5%E9%80%A3%E8%B3%87%E6%96%99</t>
   </si>
   <si>
-    <t>鍵連資料</t>
+    <t>键连资料</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Semantic_wiki</t>
@@ -3617,7 +3605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%9B%B8%E9%A4%A82.0</t>
   </si>
   <si>
-    <t>圖書館2.0</t>
+    <t>图书馆2.0</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E6%95%B0%E6%8D%AE</t>
@@ -3629,7 +3617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E7%85%A7</t>
   </si>
   <si>
-    <t>參照</t>
+    <t>参照</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Web_2.0</t>
@@ -3689,9 +3677,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%87%E7%BB%B4%E7%BD%91%E8%81%94%E7%9B%9F</t>
   </si>
   <si>
-    <t>万维网联盟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E7%A7%91%E5%AD%A6</t>
   </si>
   <si>
@@ -3719,7 +3704,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E4%B8%80%E8%B3%87%E6%BA%90%E6%A8%99%E8%AD%98%E7%AC%A6</t>
   </si>
   <si>
-    <t>統一資源標識符</t>
+    <t>统一资源标识符</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/RDF</t>
@@ -3791,7 +3776,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3809,7 +3794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3821,7 +3806,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3839,13 +3824,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -15973,7 +15958,7 @@
         <v>775</v>
       </c>
       <c r="F406" t="s">
-        <v>776</v>
+        <v>0</v>
       </c>
       <c r="G406" t="n">
         <v>42</v>
@@ -15999,10 +15984,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
+        <v>776</v>
+      </c>
+      <c r="F407" t="s">
         <v>777</v>
-      </c>
-      <c r="F407" t="s">
-        <v>778</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -16028,10 +16013,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
+        <v>778</v>
+      </c>
+      <c r="F408" t="s">
         <v>779</v>
-      </c>
-      <c r="F408" t="s">
-        <v>780</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -16086,10 +16071,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
+        <v>780</v>
+      </c>
+      <c r="F410" t="s">
         <v>781</v>
-      </c>
-      <c r="F410" t="s">
-        <v>782</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -16115,10 +16100,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
+        <v>782</v>
+      </c>
+      <c r="F411" t="s">
         <v>783</v>
-      </c>
-      <c r="F411" t="s">
-        <v>784</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -16147,7 +16132,7 @@
         <v>775</v>
       </c>
       <c r="F412" t="s">
-        <v>776</v>
+        <v>0</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -16173,13 +16158,13 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
+        <v>784</v>
+      </c>
+      <c r="F413" t="s">
         <v>785</v>
       </c>
-      <c r="F413" t="s">
-        <v>786</v>
-      </c>
       <c r="G413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H413" t="s">
         <v>4</v>
@@ -16202,10 +16187,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
+        <v>786</v>
+      </c>
+      <c r="F414" t="s">
         <v>787</v>
-      </c>
-      <c r="F414" t="s">
-        <v>788</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -16231,10 +16216,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
+        <v>788</v>
+      </c>
+      <c r="F415" t="s">
         <v>789</v>
-      </c>
-      <c r="F415" t="s">
-        <v>790</v>
       </c>
       <c r="G415" t="n">
         <v>3</v>
@@ -16260,10 +16245,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
+        <v>790</v>
+      </c>
+      <c r="F416" t="s">
         <v>791</v>
-      </c>
-      <c r="F416" t="s">
-        <v>792</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -16289,10 +16274,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
+        <v>792</v>
+      </c>
+      <c r="F417" t="s">
         <v>793</v>
-      </c>
-      <c r="F417" t="s">
-        <v>794</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -16318,10 +16303,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
+        <v>794</v>
+      </c>
+      <c r="F418" t="s">
         <v>795</v>
-      </c>
-      <c r="F418" t="s">
-        <v>796</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -16347,10 +16332,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
+        <v>796</v>
+      </c>
+      <c r="F419" t="s">
         <v>797</v>
-      </c>
-      <c r="F419" t="s">
-        <v>798</v>
       </c>
       <c r="G419" t="n">
         <v>15</v>
@@ -16405,10 +16390,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
+        <v>798</v>
+      </c>
+      <c r="F421" t="s">
         <v>799</v>
-      </c>
-      <c r="F421" t="s">
-        <v>800</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -16434,10 +16419,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
+        <v>800</v>
+      </c>
+      <c r="F422" t="s">
         <v>801</v>
-      </c>
-      <c r="F422" t="s">
-        <v>802</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -16463,10 +16448,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
+        <v>802</v>
+      </c>
+      <c r="F423" t="s">
         <v>803</v>
-      </c>
-      <c r="F423" t="s">
-        <v>804</v>
       </c>
       <c r="G423" t="n">
         <v>8</v>
@@ -16521,10 +16506,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
+        <v>804</v>
+      </c>
+      <c r="F425" t="s">
         <v>805</v>
-      </c>
-      <c r="F425" t="s">
-        <v>806</v>
       </c>
       <c r="G425" t="n">
         <v>3</v>
@@ -16550,10 +16535,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
+        <v>806</v>
+      </c>
+      <c r="F426" t="s">
         <v>807</v>
-      </c>
-      <c r="F426" t="s">
-        <v>808</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16579,10 +16564,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
+        <v>808</v>
+      </c>
+      <c r="F427" t="s">
         <v>809</v>
-      </c>
-      <c r="F427" t="s">
-        <v>810</v>
       </c>
       <c r="G427" t="n">
         <v>2</v>
@@ -16608,10 +16593,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
+        <v>810</v>
+      </c>
+      <c r="F428" t="s">
         <v>811</v>
-      </c>
-      <c r="F428" t="s">
-        <v>812</v>
       </c>
       <c r="G428" t="n">
         <v>2</v>
@@ -16637,10 +16622,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
+        <v>812</v>
+      </c>
+      <c r="F429" t="s">
         <v>813</v>
-      </c>
-      <c r="F429" t="s">
-        <v>814</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16666,10 +16651,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
+        <v>814</v>
+      </c>
+      <c r="F430" t="s">
         <v>815</v>
-      </c>
-      <c r="F430" t="s">
-        <v>816</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16695,10 +16680,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
+        <v>816</v>
+      </c>
+      <c r="F431" t="s">
         <v>817</v>
-      </c>
-      <c r="F431" t="s">
-        <v>818</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16724,10 +16709,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
+        <v>818</v>
+      </c>
+      <c r="F432" t="s">
         <v>819</v>
-      </c>
-      <c r="F432" t="s">
-        <v>820</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16753,10 +16738,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
+        <v>820</v>
+      </c>
+      <c r="F433" t="s">
         <v>821</v>
-      </c>
-      <c r="F433" t="s">
-        <v>822</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16782,10 +16767,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
+        <v>822</v>
+      </c>
+      <c r="F434" t="s">
         <v>823</v>
-      </c>
-      <c r="F434" t="s">
-        <v>824</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16811,10 +16796,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
+        <v>824</v>
+      </c>
+      <c r="F435" t="s">
         <v>825</v>
-      </c>
-      <c r="F435" t="s">
-        <v>826</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16840,10 +16825,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
+        <v>826</v>
+      </c>
+      <c r="F436" t="s">
         <v>827</v>
-      </c>
-      <c r="F436" t="s">
-        <v>828</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16869,10 +16854,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
+        <v>828</v>
+      </c>
+      <c r="F437" t="s">
         <v>829</v>
-      </c>
-      <c r="F437" t="s">
-        <v>830</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16898,10 +16883,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
+        <v>830</v>
+      </c>
+      <c r="F438" t="s">
         <v>831</v>
-      </c>
-      <c r="F438" t="s">
-        <v>832</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16927,10 +16912,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
+        <v>832</v>
+      </c>
+      <c r="F439" t="s">
         <v>833</v>
-      </c>
-      <c r="F439" t="s">
-        <v>834</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16956,10 +16941,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
+        <v>834</v>
+      </c>
+      <c r="F440" t="s">
         <v>835</v>
-      </c>
-      <c r="F440" t="s">
-        <v>836</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16985,10 +16970,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
+        <v>836</v>
+      </c>
+      <c r="F441" t="s">
         <v>837</v>
-      </c>
-      <c r="F441" t="s">
-        <v>838</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -17014,10 +16999,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
+        <v>838</v>
+      </c>
+      <c r="F442" t="s">
         <v>839</v>
-      </c>
-      <c r="F442" t="s">
-        <v>840</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -17043,10 +17028,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
+        <v>840</v>
+      </c>
+      <c r="F443" t="s">
         <v>841</v>
-      </c>
-      <c r="F443" t="s">
-        <v>842</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -17072,10 +17057,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
+        <v>842</v>
+      </c>
+      <c r="F444" t="s">
         <v>843</v>
-      </c>
-      <c r="F444" t="s">
-        <v>844</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -17101,10 +17086,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
+        <v>844</v>
+      </c>
+      <c r="F445" t="s">
         <v>845</v>
-      </c>
-      <c r="F445" t="s">
-        <v>846</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -17130,10 +17115,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
+        <v>846</v>
+      </c>
+      <c r="F446" t="s">
         <v>847</v>
-      </c>
-      <c r="F446" t="s">
-        <v>848</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -17159,10 +17144,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
+        <v>848</v>
+      </c>
+      <c r="F447" t="s">
         <v>849</v>
-      </c>
-      <c r="F447" t="s">
-        <v>850</v>
       </c>
       <c r="G447" t="n">
         <v>2</v>
@@ -17188,10 +17173,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
+        <v>850</v>
+      </c>
+      <c r="F448" t="s">
         <v>851</v>
-      </c>
-      <c r="F448" t="s">
-        <v>852</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -17217,10 +17202,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
+        <v>852</v>
+      </c>
+      <c r="F449" t="s">
         <v>853</v>
-      </c>
-      <c r="F449" t="s">
-        <v>854</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -17246,10 +17231,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
+        <v>854</v>
+      </c>
+      <c r="F450" t="s">
         <v>855</v>
-      </c>
-      <c r="F450" t="s">
-        <v>856</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -17275,10 +17260,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
+        <v>856</v>
+      </c>
+      <c r="F451" t="s">
         <v>857</v>
-      </c>
-      <c r="F451" t="s">
-        <v>858</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -17304,10 +17289,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
+        <v>858</v>
+      </c>
+      <c r="F452" t="s">
         <v>859</v>
-      </c>
-      <c r="F452" t="s">
-        <v>860</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -17333,10 +17318,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
+        <v>860</v>
+      </c>
+      <c r="F453" t="s">
         <v>861</v>
-      </c>
-      <c r="F453" t="s">
-        <v>862</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -17362,10 +17347,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
+        <v>862</v>
+      </c>
+      <c r="F454" t="s">
         <v>863</v>
-      </c>
-      <c r="F454" t="s">
-        <v>864</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -17391,10 +17376,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
+        <v>864</v>
+      </c>
+      <c r="F455" t="s">
         <v>865</v>
-      </c>
-      <c r="F455" t="s">
-        <v>866</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -17420,10 +17405,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
+        <v>866</v>
+      </c>
+      <c r="F456" t="s">
         <v>867</v>
-      </c>
-      <c r="F456" t="s">
-        <v>868</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -17449,10 +17434,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
+        <v>868</v>
+      </c>
+      <c r="F457" t="s">
         <v>869</v>
-      </c>
-      <c r="F457" t="s">
-        <v>870</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -17478,10 +17463,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
+        <v>870</v>
+      </c>
+      <c r="F458" t="s">
         <v>871</v>
-      </c>
-      <c r="F458" t="s">
-        <v>872</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17507,10 +17492,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
+        <v>872</v>
+      </c>
+      <c r="F459" t="s">
         <v>873</v>
-      </c>
-      <c r="F459" t="s">
-        <v>874</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -17536,10 +17521,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
+        <v>874</v>
+      </c>
+      <c r="F460" t="s">
         <v>875</v>
-      </c>
-      <c r="F460" t="s">
-        <v>876</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17565,10 +17550,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
+        <v>876</v>
+      </c>
+      <c r="F461" t="s">
         <v>877</v>
-      </c>
-      <c r="F461" t="s">
-        <v>878</v>
       </c>
       <c r="G461" t="n">
         <v>2</v>
@@ -17594,10 +17579,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
+        <v>878</v>
+      </c>
+      <c r="F462" t="s">
         <v>879</v>
-      </c>
-      <c r="F462" t="s">
-        <v>880</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17623,10 +17608,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
+        <v>880</v>
+      </c>
+      <c r="F463" t="s">
         <v>881</v>
-      </c>
-      <c r="F463" t="s">
-        <v>882</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17652,10 +17637,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
+        <v>882</v>
+      </c>
+      <c r="F464" t="s">
         <v>883</v>
-      </c>
-      <c r="F464" t="s">
-        <v>884</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17681,10 +17666,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
+        <v>884</v>
+      </c>
+      <c r="F465" t="s">
         <v>885</v>
-      </c>
-      <c r="F465" t="s">
-        <v>886</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17710,10 +17695,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
+        <v>886</v>
+      </c>
+      <c r="F466" t="s">
         <v>887</v>
-      </c>
-      <c r="F466" t="s">
-        <v>888</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17739,10 +17724,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
+        <v>888</v>
+      </c>
+      <c r="F467" t="s">
         <v>889</v>
-      </c>
-      <c r="F467" t="s">
-        <v>890</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17768,10 +17753,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
+        <v>890</v>
+      </c>
+      <c r="F468" t="s">
         <v>891</v>
-      </c>
-      <c r="F468" t="s">
-        <v>892</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17797,10 +17782,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
+        <v>892</v>
+      </c>
+      <c r="F469" t="s">
         <v>893</v>
-      </c>
-      <c r="F469" t="s">
-        <v>894</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17826,10 +17811,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
+        <v>894</v>
+      </c>
+      <c r="F470" t="s">
         <v>895</v>
-      </c>
-      <c r="F470" t="s">
-        <v>896</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17855,10 +17840,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
+        <v>896</v>
+      </c>
+      <c r="F471" t="s">
         <v>897</v>
-      </c>
-      <c r="F471" t="s">
-        <v>898</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17884,10 +17869,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F472" t="s">
-        <v>900</v>
+        <v>146</v>
       </c>
       <c r="G472" t="n">
         <v>2</v>
@@ -17913,10 +17898,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F473" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17942,10 +17927,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F474" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17971,10 +17956,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F475" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -18000,10 +17985,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F476" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -18029,10 +18014,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F477" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -18058,10 +18043,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F478" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -18087,10 +18072,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F479" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -18116,10 +18101,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F480" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -18145,10 +18130,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F481" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -18174,10 +18159,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F482" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -18203,10 +18188,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F483" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -18232,10 +18217,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F484" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -18261,10 +18246,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F485" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -18290,10 +18275,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F486" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -18319,10 +18304,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F487" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -18348,10 +18333,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F488" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -18377,10 +18362,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F489" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -18406,10 +18391,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F490" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -18435,10 +18420,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F491" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -18464,10 +18449,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F492" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G492" t="n">
         <v>3</v>
@@ -18493,10 +18478,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F493" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18522,10 +18507,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F494" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18551,10 +18536,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F495" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G495" t="n">
         <v>2</v>
@@ -18580,10 +18565,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F496" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18609,10 +18594,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F497" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18638,10 +18623,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F498" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G498" t="n">
         <v>2</v>
@@ -18667,10 +18652,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F499" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18696,10 +18681,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F500" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18725,10 +18710,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F501" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18754,10 +18739,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F502" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18783,10 +18768,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
+        <v>894</v>
+      </c>
+      <c r="F503" t="s">
         <v>895</v>
-      </c>
-      <c r="F503" t="s">
-        <v>896</v>
       </c>
       <c r="G503" t="n">
         <v>2</v>
@@ -18812,10 +18797,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F504" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18841,10 +18826,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
+        <v>824</v>
+      </c>
+      <c r="F505" t="s">
         <v>825</v>
-      </c>
-      <c r="F505" t="s">
-        <v>826</v>
       </c>
       <c r="G505" t="n">
         <v>9</v>
@@ -18870,10 +18855,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F506" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18899,10 +18884,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F507" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18928,10 +18913,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F508" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18957,10 +18942,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F509" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18986,10 +18971,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F510" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -19015,10 +19000,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F511" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -19044,10 +19029,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F512" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -19073,10 +19058,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F513" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="G513" t="n">
         <v>3</v>
@@ -19102,10 +19087,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
+        <v>826</v>
+      </c>
+      <c r="F514" t="s">
         <v>827</v>
-      </c>
-      <c r="F514" t="s">
-        <v>828</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -19131,10 +19116,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F515" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -19160,10 +19145,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F516" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -19189,10 +19174,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F517" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -19218,10 +19203,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F518" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -19247,10 +19232,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F519" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -19276,10 +19261,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F520" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -19305,10 +19290,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F521" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -19334,10 +19319,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F522" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="G522" t="n">
         <v>2</v>
@@ -19363,10 +19348,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
+        <v>838</v>
+      </c>
+      <c r="F523" t="s">
         <v>839</v>
-      </c>
-      <c r="F523" t="s">
-        <v>840</v>
       </c>
       <c r="G523" t="n">
         <v>3</v>
@@ -19392,10 +19377,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F524" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -19421,10 +19406,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F525" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -19450,10 +19435,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F526" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19479,10 +19464,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F527" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="G527" t="n">
         <v>3</v>
@@ -19508,10 +19493,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F528" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19537,10 +19522,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F529" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19566,10 +19551,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F530" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19595,10 +19580,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F531" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19624,10 +19609,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
+        <v>856</v>
+      </c>
+      <c r="F532" t="s">
         <v>857</v>
-      </c>
-      <c r="F532" t="s">
-        <v>858</v>
       </c>
       <c r="G532" t="n">
         <v>2</v>
@@ -19653,10 +19638,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F533" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19682,10 +19667,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F534" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19711,10 +19696,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F535" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19740,10 +19725,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="F536" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19769,10 +19754,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F537" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19798,10 +19783,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F538" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19827,10 +19812,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F539" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19856,10 +19841,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F540" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19885,10 +19870,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F541" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19914,10 +19899,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F542" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19943,10 +19928,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F543" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="G543" t="n">
         <v>2</v>
@@ -19972,10 +19957,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F544" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -20001,10 +19986,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F545" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G545" t="n">
         <v>2</v>
@@ -20030,10 +20015,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F546" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G546" t="n">
         <v>2</v>
@@ -20059,10 +20044,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
+        <v>874</v>
+      </c>
+      <c r="F547" t="s">
         <v>875</v>
-      </c>
-      <c r="F547" t="s">
-        <v>876</v>
       </c>
       <c r="G547" t="n">
         <v>5</v>
@@ -20088,10 +20073,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F548" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -20117,10 +20102,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F549" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -20146,10 +20131,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F550" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -20175,10 +20160,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F551" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -20204,10 +20189,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F552" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -20233,10 +20218,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F553" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -20262,10 +20247,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F554" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="G554" t="n">
         <v>2</v>
@@ -20291,10 +20276,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F555" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -20320,10 +20305,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="F556" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -20349,10 +20334,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="F557" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -20378,10 +20363,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F558" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -20407,10 +20392,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F559" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20436,10 +20421,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F560" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -20465,10 +20450,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F561" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20494,10 +20479,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F562" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20523,10 +20508,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F563" t="s">
-        <v>1062</v>
+        <v>835</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20552,10 +20537,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F564" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20581,10 +20566,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="F565" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20610,10 +20595,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="F566" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20639,10 +20624,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="F567" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20668,10 +20653,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="F568" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20697,10 +20682,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="F569" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20726,10 +20711,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="F570" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20755,10 +20740,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="F571" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20784,10 +20769,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F572" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20813,10 +20798,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="F573" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20842,10 +20827,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="F574" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20871,10 +20856,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="F575" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -20900,10 +20885,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F576" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20929,10 +20914,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="F577" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20958,10 +20943,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="F578" t="s">
-        <v>1088</v>
+        <v>883</v>
       </c>
       <c r="G578" t="n">
         <v>2</v>
@@ -20987,10 +20972,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="F579" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -21016,10 +21001,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="F580" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -21045,10 +21030,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="F581" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -21074,10 +21059,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F582" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -21103,10 +21088,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="F583" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -21132,10 +21117,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="F584" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -21161,10 +21146,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="F585" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -21190,10 +21175,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="F586" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -21219,10 +21204,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="F587" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -21248,10 +21233,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="F588" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -21277,10 +21262,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="F589" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -21306,10 +21291,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="F590" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -21335,10 +21320,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="F591" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -21364,10 +21349,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="F592" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -21393,10 +21378,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="F593" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -21422,10 +21407,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="F594" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="G594" t="n">
         <v>2</v>
@@ -21451,10 +21436,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="F595" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -21480,10 +21465,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="F596" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -21509,10 +21494,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="F597" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21538,10 +21523,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="F598" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -21567,10 +21552,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="F599" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -21596,10 +21581,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="F600" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21625,10 +21610,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="F601" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="G601" t="n">
         <v>1</v>
@@ -21654,10 +21639,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="F602" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21683,10 +21668,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="F603" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21712,10 +21697,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="F604" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -21741,10 +21726,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="F605" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -21770,10 +21755,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="F606" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -21799,10 +21784,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="F607" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -21828,10 +21813,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="F608" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="G608" t="n">
         <v>4</v>
@@ -21857,10 +21842,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="F609" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="G609" t="n">
         <v>5</v>
@@ -21886,10 +21871,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="F610" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -21915,10 +21900,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="F611" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -21944,10 +21929,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="F612" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="G612" t="n">
         <v>2</v>
@@ -21973,10 +21958,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="F613" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -22002,10 +21987,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="F614" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -22031,10 +22016,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="F615" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="G615" t="n">
         <v>4</v>
@@ -22060,10 +22045,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="F616" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -22089,10 +22074,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="F617" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -22118,10 +22103,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="F618" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -22147,10 +22132,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="F619" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -22176,10 +22161,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="F620" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -22205,10 +22190,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="F621" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -22234,10 +22219,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="F622" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -22263,10 +22248,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="F623" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -22292,10 +22277,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="F624" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -22321,10 +22306,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="F625" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="G625" t="n">
         <v>1</v>
@@ -22350,10 +22335,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="F626" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="G626" t="n">
         <v>1</v>
@@ -22379,10 +22364,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="F627" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -22408,10 +22393,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="F628" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -22437,10 +22422,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="F629" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="G629" t="n">
         <v>1</v>
@@ -22466,10 +22451,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F630" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -22495,10 +22480,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="F631" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="G631" t="n">
         <v>2</v>
@@ -22524,10 +22509,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="F632" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -22553,10 +22538,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="F633" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -22582,10 +22567,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="F634" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -22611,10 +22596,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="F635" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -22640,10 +22625,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="F636" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -22669,10 +22654,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="F637" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="G637" t="n">
         <v>3</v>
@@ -22698,10 +22683,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="F638" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -22727,10 +22712,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="F639" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -22756,10 +22741,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="F640" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -22785,10 +22770,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="F641" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -22814,10 +22799,10 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="F642" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="G642" t="n">
         <v>1</v>
@@ -22843,10 +22828,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="F643" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="G643" t="n">
         <v>2</v>
@@ -22872,10 +22857,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="F644" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>
@@ -22901,10 +22886,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="F645" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -22930,10 +22915,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="F646" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="G646" t="n">
         <v>2</v>
@@ -22959,10 +22944,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="F647" t="s">
-        <v>1224</v>
+        <v>268</v>
       </c>
       <c r="G647" t="n">
         <v>2</v>
@@ -22988,10 +22973,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="F648" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -23017,10 +23002,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="F649" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -23046,10 +23031,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="F650" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -23075,10 +23060,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="F651" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="G651" t="n">
         <v>1</v>
@@ -23104,10 +23089,10 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="F652" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="G652" t="n">
         <v>2</v>
@@ -23133,10 +23118,10 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="F653" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="G653" t="n">
         <v>1</v>
@@ -23162,10 +23147,10 @@
         <v>653</v>
       </c>
       <c r="E654" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="F654" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="G654" t="n">
         <v>2</v>
@@ -23191,10 +23176,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="F655" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="G655" t="n">
         <v>1</v>
@@ -23220,10 +23205,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="F656" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="G656" t="n">
         <v>2</v>
@@ -23249,10 +23234,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="F657" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="G657" t="n">
         <v>2</v>
@@ -23278,10 +23263,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="F658" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
@@ -23307,10 +23292,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F659" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="G659" t="n">
         <v>1</v>
@@ -23336,10 +23321,10 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F660" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="G660" t="n">
         <v>1</v>
@@ -23365,10 +23350,10 @@
         <v>660</v>
       </c>
       <c r="E661" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F661" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="G661" t="n">
         <v>1</v>
@@ -23394,10 +23379,10 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="F662" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="G662" t="n">
         <v>1</v>
@@ -23423,10 +23408,10 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="F663" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="G663" t="n">
         <v>1</v>
@@ -23452,10 +23437,10 @@
         <v>663</v>
       </c>
       <c r="E664" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="F664" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="G664" t="n">
         <v>3</v>
@@ -23481,10 +23466,10 @@
         <v>664</v>
       </c>
       <c r="E665" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="F665" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="G665" t="n">
         <v>1</v>
@@ -23510,10 +23495,10 @@
         <v>665</v>
       </c>
       <c r="E666" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="F666" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="G666" t="n">
         <v>1</v>
@@ -23539,10 +23524,10 @@
         <v>666</v>
       </c>
       <c r="E667" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="F667" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="G667" t="n">
         <v>1</v>
@@ -23568,10 +23553,10 @@
         <v>667</v>
       </c>
       <c r="E668" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="F668" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="G668" t="n">
         <v>1</v>
@@ -23597,10 +23582,10 @@
         <v>668</v>
       </c>
       <c r="E669" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="F669" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="G669" t="n">
         <v>1</v>
@@ -23626,10 +23611,10 @@
         <v>669</v>
       </c>
       <c r="E670" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="F670" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="G670" t="n">
         <v>1</v>
@@ -23655,10 +23640,10 @@
         <v>670</v>
       </c>
       <c r="E671" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="F671" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="G671" t="n">
         <v>1</v>
@@ -23684,10 +23669,10 @@
         <v>671</v>
       </c>
       <c r="E672" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="F672" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="G672" t="n">
         <v>1</v>
@@ -23713,10 +23698,10 @@
         <v>672</v>
       </c>
       <c r="E673" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="F673" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="G673" t="n">
         <v>1</v>
@@ -23742,10 +23727,10 @@
         <v>673</v>
       </c>
       <c r="E674" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="F674" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="G674" t="n">
         <v>1</v>
@@ -23771,10 +23756,10 @@
         <v>674</v>
       </c>
       <c r="E675" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="F675" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="G675" t="n">
         <v>1</v>
